--- a/Execution_Unit/Documentation/ProjectLog-G12-5814-350-1257.xlsx
+++ b/Execution_Unit/Documentation/ProjectLog-G12-5814-350-1257.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/edafb57772ce9388/Desktop/SFU/2025/FALL 2025/ENSC350/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amytis\Desktop\SFU\2025\FALL2025\ENSC350\github\ENSC-350\FP\Submission\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="13_ncr:1_{4D841EB5-DA9E-444C-B93D-022240CF7637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EF7C752-52E2-4E1D-860C-D9C936B63F0F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E833A861-6046-4441-BEBA-5267D5D988CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="uphip+fyQmgTbQWVslgKndYGTCUT2nMCnU8pTyuiPxh9t3MkaNQeLeeV1eDZUH8uYM8JtsIZJzZApwnnbRUEcA==" workbookSaltValue="PVE5+bPUyqyV9jE5EaqSxw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="9290" yWindow="9690" windowWidth="23890" windowHeight="15370" activeTab="5" xr2:uid="{5C666647-60C4-4C14-A5E1-8900F85EBB7F}"/>
+    <workbookView xWindow="9290" yWindow="5510" windowWidth="23890" windowHeight="15370" activeTab="5" xr2:uid="{5C666647-60C4-4C14-A5E1-8900F85EBB7F}"/>
   </bookViews>
   <sheets>
     <sheet name="DP1.0" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="73">
   <si>
     <t>last  4 digits</t>
   </si>
@@ -85,9 +85,6 @@
   <si>
     <t>Members Relative Contribution:
 (estimate your contribution to this phase of the project)</t>
-  </si>
-  <si>
-    <t>%</t>
   </si>
   <si>
     <r>
@@ -1304,10 +1301,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -1626,7 +1619,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="94.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
@@ -1641,12 +1634,12 @@
         <v>6</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="52"/>
       <c r="D2" s="53"/>
       <c r="E2" s="45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="46"/>
       <c r="G2" s="46"/>
@@ -1669,7 +1662,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="43"/>
       <c r="D4" s="44"/>
@@ -1722,17 +1715,17 @@
         <v>5814</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="20">
         <v>0.76041666666666663</v>
       </c>
       <c r="F7" s="33"/>
       <c r="G7" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" s="11" t="e">
         <f t="shared" ref="H7" si="0">(E7-D7)*24</f>
@@ -1746,7 +1739,7 @@
         <v>5814</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="19">
         <v>0.55208333333333337</v>
@@ -1756,7 +1749,7 @@
       </c>
       <c r="F8" s="34"/>
       <c r="G8" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H8" s="26">
         <f>(E8-D8)*24</f>
@@ -1769,7 +1762,7 @@
         <v>5814</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="19">
         <v>0.58333333333333337</v>
@@ -1779,7 +1772,7 @@
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H9" s="26">
         <f t="shared" ref="H9:H72" si="1">(E9-D9)*24</f>
@@ -3449,7 +3442,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="94.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
@@ -3464,12 +3457,12 @@
         <v>6</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="52"/>
       <c r="D2" s="53"/>
       <c r="E2" s="45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="46"/>
       <c r="G2" s="46"/>
@@ -3492,7 +3485,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="43"/>
       <c r="D4" s="44"/>
@@ -3545,7 +3538,7 @@
         <v>5814</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="19">
         <v>0.64583333333333337</v>
@@ -3555,7 +3548,7 @@
       </c>
       <c r="F7" s="33"/>
       <c r="G7" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H7" s="11">
         <f t="shared" ref="H7" si="0">(E7-D7)*24</f>
@@ -3569,7 +3562,7 @@
         <v>5814</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="19">
         <v>0.6875</v>
@@ -3579,7 +3572,7 @@
       </c>
       <c r="F8" s="34"/>
       <c r="G8" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8" s="26">
         <f>(E8-D8)*24</f>
@@ -3592,7 +3585,7 @@
         <v>5814</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="19">
         <v>0.72916666666666663</v>
@@ -3602,7 +3595,7 @@
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H9" s="26">
         <f t="shared" ref="H9:H72" si="1">(E9-D9)*24</f>
@@ -3615,7 +3608,7 @@
         <v>5814</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="19">
         <v>0.73958333333333337</v>
@@ -3625,7 +3618,7 @@
       </c>
       <c r="F10" s="34"/>
       <c r="G10" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H10" s="26">
         <f t="shared" si="1"/>
@@ -3638,7 +3631,7 @@
         <v>5814</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="19">
         <v>0.78125</v>
@@ -3648,7 +3641,7 @@
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H11" s="26">
         <f t="shared" si="1"/>
@@ -3661,7 +3654,7 @@
         <v>5814</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="19">
         <v>0.58333333333333337</v>
@@ -3671,7 +3664,7 @@
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H12" s="26">
         <f t="shared" si="1"/>
@@ -3684,7 +3677,7 @@
         <v>5814</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="19">
         <v>0.71875</v>
@@ -3694,7 +3687,7 @@
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H13" s="26">
         <f t="shared" si="1"/>
@@ -3707,7 +3700,7 @@
         <v>5814</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="19">
         <v>0.77083333333333337</v>
@@ -3717,7 +3710,7 @@
       </c>
       <c r="F14" s="34"/>
       <c r="G14" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H14" s="26">
         <f t="shared" si="1"/>
@@ -3730,7 +3723,7 @@
         <v>5814</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="19">
         <v>0.65625</v>
@@ -3740,7 +3733,7 @@
       </c>
       <c r="F15" s="34"/>
       <c r="G15" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H15" s="26">
         <f t="shared" si="1"/>
@@ -3753,7 +3746,7 @@
         <v>5814</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" s="19">
         <v>0.70833333333333337</v>
@@ -3763,7 +3756,7 @@
       </c>
       <c r="F16" s="34"/>
       <c r="G16" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H16" s="26">
         <f t="shared" si="1"/>
@@ -3776,7 +3769,7 @@
         <v>5814</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" s="19">
         <v>0.79166666666666663</v>
@@ -3786,7 +3779,7 @@
       </c>
       <c r="F17" s="34"/>
       <c r="G17" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H17" s="26">
         <f t="shared" si="1"/>
@@ -5353,7 +5346,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="94.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
@@ -5368,12 +5361,12 @@
         <v>6</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="52"/>
       <c r="D2" s="53"/>
       <c r="E2" s="45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="46"/>
       <c r="G2" s="46"/>
@@ -5396,7 +5389,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="43"/>
       <c r="D4" s="44"/>
@@ -5449,7 +5442,7 @@
         <v>5814</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="19">
         <v>0.76041666666666663</v>
@@ -5459,7 +5452,7 @@
       </c>
       <c r="F7" s="33"/>
       <c r="G7" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H7" s="11">
         <f t="shared" ref="H7" si="0">(E7-D7)*24</f>
@@ -5473,7 +5466,7 @@
         <v>5814</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="19">
         <v>0.48958333333333331</v>
@@ -5483,7 +5476,7 @@
       </c>
       <c r="F8" s="34"/>
       <c r="G8" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" s="26">
         <f>(E8-D8)*24</f>
@@ -5496,7 +5489,7 @@
         <v>5814</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="19">
         <v>0.6875</v>
@@ -5506,7 +5499,7 @@
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H9" s="26">
         <f t="shared" ref="H9:H72" si="1">(E9-D9)*24</f>
@@ -5519,7 +5512,7 @@
         <v>5814</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="19">
         <v>0.54166666666666663</v>
@@ -5529,7 +5522,7 @@
       </c>
       <c r="F10" s="34"/>
       <c r="G10" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H10" s="26">
         <f t="shared" si="1"/>
@@ -5542,7 +5535,7 @@
         <v>5814</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="19">
         <v>0.64583333333333337</v>
@@ -5552,7 +5545,7 @@
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H11" s="26">
         <f t="shared" si="1"/>
@@ -5565,7 +5558,7 @@
         <v>5814</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" s="19">
         <v>0.63541666666666663</v>
@@ -5575,7 +5568,7 @@
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H12" s="26">
         <f t="shared" si="1"/>
@@ -5588,7 +5581,7 @@
         <v>5814</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="19">
         <v>0.59375</v>
@@ -5598,7 +5591,7 @@
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H13" s="26">
         <f t="shared" si="1"/>
@@ -7216,7 +7209,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="94.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
@@ -7231,12 +7224,12 @@
         <v>6</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="52"/>
       <c r="D2" s="53"/>
       <c r="E2" s="45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="46"/>
       <c r="G2" s="46"/>
@@ -7259,7 +7252,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="43"/>
       <c r="D4" s="44"/>
@@ -7312,7 +7305,7 @@
         <v>5814</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" s="19">
         <v>0.625</v>
@@ -7322,7 +7315,7 @@
       </c>
       <c r="F7" s="33"/>
       <c r="G7" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H7" s="11">
         <f t="shared" ref="H7" si="0">(E7-D7)*24</f>
@@ -9019,7 +9012,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="94.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
@@ -9034,12 +9027,12 @@
         <v>6</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="52"/>
       <c r="D2" s="53"/>
       <c r="E2" s="45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="46"/>
       <c r="G2" s="46"/>
@@ -9062,7 +9055,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="43"/>
       <c r="D4" s="44"/>
@@ -9125,7 +9118,7 @@
       </c>
       <c r="F7" s="33"/>
       <c r="G7" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H7" s="11">
         <f t="shared" ref="H7" si="0">(E7-D7)*24</f>
@@ -9149,7 +9142,7 @@
       </c>
       <c r="F8" s="34"/>
       <c r="G8" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H8" s="26">
         <f>(E8-D8)*24</f>
@@ -9172,7 +9165,7 @@
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H9" s="26">
         <f>(E9-D9)*24</f>
@@ -9195,7 +9188,7 @@
       </c>
       <c r="F10" s="34"/>
       <c r="G10" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H10" s="26">
         <f>(E10-D10)*24</f>
@@ -9218,7 +9211,7 @@
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H11" s="26">
         <f>(E11-D11)*24</f>
@@ -9241,7 +9234,7 @@
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H12" s="26">
         <f t="shared" ref="H12:H72" si="1">(E12-D12)*24</f>
@@ -9264,7 +9257,7 @@
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H13" s="26">
         <f t="shared" si="1"/>
@@ -9287,7 +9280,7 @@
       </c>
       <c r="F14" s="34"/>
       <c r="G14" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H14" s="26">
         <f t="shared" si="1"/>
@@ -9310,7 +9303,7 @@
       </c>
       <c r="F15" s="34"/>
       <c r="G15" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H15" s="26">
         <f t="shared" si="1"/>
@@ -9333,7 +9326,7 @@
       </c>
       <c r="F16" s="34"/>
       <c r="G16" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H16" s="26">
         <f t="shared" si="1"/>
@@ -10893,8 +10886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676ED784-1E0D-4E86-A01D-1FC00F00DC03}">
   <dimension ref="A1:I783"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10912,7 +10905,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="94.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
@@ -10927,12 +10920,12 @@
         <v>6</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="52"/>
       <c r="D2" s="53"/>
       <c r="E2" s="45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="46"/>
       <c r="G2" s="46"/>
@@ -10955,7 +10948,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="43"/>
       <c r="D4" s="44"/>
@@ -10967,8 +10960,8 @@
       <c r="A5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="57" t="s">
-        <v>11</v>
+      <c r="B5" s="42">
+        <v>0.6</v>
       </c>
       <c r="C5" s="43"/>
       <c r="D5" s="44"/>
@@ -11018,7 +11011,7 @@
       </c>
       <c r="F7" s="33"/>
       <c r="G7" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H7" s="11">
         <f t="shared" ref="H7" si="0">(E7-D7)*24</f>
@@ -11042,7 +11035,7 @@
       </c>
       <c r="F8" s="34"/>
       <c r="G8" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H8" s="26">
         <f>(E8-D8)*24</f>
@@ -11065,7 +11058,7 @@
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H9" s="26">
         <f t="shared" ref="H9:H72" si="1">(E9-D9)*24</f>
@@ -11088,7 +11081,7 @@
       </c>
       <c r="F10" s="34"/>
       <c r="G10" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H10" s="26">
         <f t="shared" si="1"/>
@@ -11111,7 +11104,7 @@
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H11" s="26">
         <f t="shared" si="1"/>
